--- a/data/trans_dic/P62A$otras-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -769,7 +770,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>68,22; 100,0</t>
+          <t>70,08; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,14</t>
+          <t>0,0; 65,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 61,95</t>
+          <t>12,64; 61,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,34; 79,76</t>
+          <t>21,9; 73,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 88,47</t>
+          <t>15,71; 88,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 83,16</t>
+          <t>21,54; 84,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,41; 95,53</t>
+          <t>54,79; 92,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,04; 100,0</t>
+          <t>61,49; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,41; 100,0</t>
+          <t>38,92; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 67,7</t>
+          <t>19,16; 67,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,41; 76,01</t>
+          <t>44,71; 76,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48,43; 85,16</t>
+          <t>48,65; 82,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,97; 89,1</t>
+          <t>42,17; 89,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,75</t>
+          <t>0,0; 25,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,1; 59,36</t>
+          <t>28,8; 59,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,06; 60,13</t>
+          <t>23,35; 59,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,56; 75,08</t>
+          <t>30,31; 76,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 36,34</t>
+          <t>4,68; 38,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,51; 61,77</t>
+          <t>27,83; 61,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,62; 74,16</t>
+          <t>37,44; 72,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47,76; 77,64</t>
+          <t>47,62; 78,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 23,05</t>
+          <t>4,18; 23,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,83; 56,27</t>
+          <t>32,96; 57,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,32; 61,92</t>
+          <t>36,28; 62,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,41; 71,17</t>
+          <t>45,42; 72,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,54</t>
+          <t>0,0; 9,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 29,94</t>
+          <t>10,2; 29,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 35,51</t>
+          <t>13,44; 34,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,2; 45,93</t>
+          <t>20,35; 47,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 26,77</t>
+          <t>4,83; 27,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 45,03</t>
+          <t>18,72; 44,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 32,64</t>
+          <t>8,75; 32,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,67; 53,09</t>
+          <t>29,05; 53,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,95</t>
+          <t>3,34; 15,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,56; 32,8</t>
+          <t>16,36; 33,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 29,79</t>
+          <t>14,68; 29,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,98; 46,2</t>
+          <t>26,8; 45,48</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 14,6</t>
+          <t>4,83; 13,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,96</t>
+          <t>4,52; 12,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,16; 36,98</t>
+          <t>24,56; 37,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,54</t>
+          <t>1,23; 11,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,38</t>
+          <t>3,81; 15,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 16,72</t>
+          <t>4,81; 17,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,12; 35,97</t>
+          <t>22,98; 36,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,93</t>
+          <t>0,39; 3,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,63</t>
+          <t>5,37; 12,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,08</t>
+          <t>5,4; 11,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 34,49</t>
+          <t>25,26; 35,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,72; 33,0</t>
+          <t>24,82; 33,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,42</t>
+          <t>0,48; 4,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,92</t>
+          <t>3,06; 9,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,37; 14,08</t>
+          <t>6,0; 13,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 22,36</t>
+          <t>3,88; 22,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,07</t>
+          <t>0,36; 2,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,27</t>
+          <t>1,5; 4,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,32</t>
+          <t>2,85; 6,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 26,35</t>
+          <t>7,03; 26,47</t>
         </is>
       </c>
     </row>
@@ -1574,52 +1575,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,88; 32,85</t>
+          <t>23,89; 32,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,61</t>
+          <t>0,45; 4,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,91</t>
+          <t>2,14; 7,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 14,46</t>
+          <t>6,24; 14,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 12,79</t>
+          <t>7,7; 12,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,79</t>
+          <t>0,25; 2,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,0</t>
+          <t>1,0; 3,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,99</t>
+          <t>3,39; 8,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,27; 20,53</t>
+          <t>15,38; 20,2</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,73</t>
+          <t>0,37; 1,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,84</t>
+          <t>5,23; 8,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,45</t>
+          <t>4,91; 8,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,26; 32,99</t>
+          <t>27,24; 33,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,97</t>
+          <t>3,21; 6,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,97</t>
+          <t>10,5; 15,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,52</t>
+          <t>12,16; 17,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,26; 21,59</t>
+          <t>8,28; 21,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,56</t>
+          <t>1,8; 3,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,23</t>
+          <t>8,17; 11,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,79; 11,82</t>
+          <t>8,71; 12,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,35; 26,29</t>
+          <t>14,7; 26,17</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe otro tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2971</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9677</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10621</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12648</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15104</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>212; 927</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>974; 3931</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2858; 4483</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>455; 1990</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>226; 988</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7864; 9677</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8955; 10621</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>825; 1916</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9537; 13608</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13317; 15104</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5258</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5908</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7468</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5883</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19536</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10945</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9339</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6753</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25444</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18412</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13941</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3414</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2117; 10363</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3163; 10646</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1276; 7192</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2322; 9093</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13333; 22544</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7901; 12850</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4691; 12055</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3067; 10856</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18369; 31365</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13277; 22513</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8508; 18119</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1853</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20192</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12297</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10525</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17794</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16126</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16295</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4993</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37985</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28423</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26820</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6319</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13458; 27735</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6895; 17659</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6022; 15259</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>902; 7384</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11040; 24509</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10727; 20809</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12312; 20178</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1853; 10530</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28477; 49915</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21103; 36476</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20768; 33170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14410</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18009</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17786</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8734</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16461</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6957</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>31184</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26743</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>34246</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4388</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7735; 22527</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10589; 27366</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11112; 25857</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1983; 11188</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10228; 24269</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4140; 15596</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11605; 21366</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2903; 13075</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21344; 43085</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18521; 37143</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25338; 42999</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14813</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15180</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>51405</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7675</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10719</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30797</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>22488</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25899</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82202</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4661</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8375; 24018</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9061; 24623</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>41812; 64346</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>980; 8790</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3647; 14666</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5337; 19723</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24400; 38489</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>978; 9251</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>14448; 34230</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16813; 36789</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69824; 97578</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>86686</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3428</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12947</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22708</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>47741</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13925</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23746</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>134426</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4978</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4995</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4451</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>74340; 99186</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>852; 8507</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6908; 21063</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14040; 32321</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16731; 97762</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1671; 9740</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7974; 22311</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15861; 35744</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>51403; 193446</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>69347</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>11674</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28535</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>31556</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>11674</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>29432</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100902</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2150</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4613</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>59038; 80259</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1121; 11607</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6335; 21887</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18256; 41979</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24558; 40288</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1121; 10938</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5445; 20953</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18416; 43743</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>87075; 114388</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>59271</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>59372</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>242339</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>27202</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>96076</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>108387</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>152188</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>33660</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>155347</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>167759</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>394527</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2732; 12874</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>45598; 77561</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>44216; 74670</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>218331; 265915</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>18477; 38851</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>78344; 115435</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>89612; 128867</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>77601; 201462</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>23706; 46446</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>132079; 182666</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>142716; 196679</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>255724; 455137</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>